--- a/doc/5-女娲系统设计方案.xlsx
+++ b/doc/5-女娲系统设计方案.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统设计" sheetId="1" r:id="rId1"/>
     <sheet name="分项设计" sheetId="4" r:id="rId2"/>
     <sheet name="测试用例" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="BOO" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">系统设计!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">系统设计!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="276">
   <si>
     <t>女娲智脑系统设计表</t>
   </si>
@@ -76,7 +76,7 @@
     <t>用户表</t>
   </si>
   <si>
-    <t xml:space="preserve">   置信度</t>
+    <t xml:space="preserve">   观察者与置信度</t>
   </si>
   <si>
     <t>用户/专业/置信度
@@ -94,7 +94,7 @@
     <t>安全管理层</t>
   </si>
   <si>
-    <t>BOF层</t>
+    <t>模型层</t>
   </si>
   <si>
     <t>数据模型（DB）</t>
@@ -106,7 +106,10 @@
     <t xml:space="preserve">    数据库设计</t>
   </si>
   <si>
-    <t>2018-05-07 梁冰修改，创建、更新、逻辑删除时间应使用trigger、like查询（未完成）</t>
+    <t>苑鹏掣、梁冰</t>
+  </si>
+  <si>
+    <t>2018-05-07 梁冰修改，创建、更新、逻辑删除时间应使用trigger、like查询（已完成）</t>
   </si>
   <si>
     <t xml:space="preserve">    MetaData</t>
@@ -118,17 +121,16 @@
     <t>1、实对象
 2、虚对象
 3、动作：Action
-4、修限：Motify
-5、集合：Collection</t>
+4、集合：Collection</t>
   </si>
   <si>
     <t xml:space="preserve">    Knowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">    KnowledgeChain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    标签/域</t>
+    <t xml:space="preserve">    Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Observer</t>
   </si>
   <si>
     <t>阀值</t>
@@ -137,16 +139,28 @@
     <t>真理与知识</t>
   </si>
   <si>
-    <t>数据模型（Cache）</t>
+    <t>数据模型（Cache，使用工作记忆）</t>
+  </si>
+  <si>
+    <t>梁冰</t>
   </si>
   <si>
     <t xml:space="preserve">    BaseEntity</t>
   </si>
   <si>
-    <t xml:space="preserve">    Layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    WorkingMemory</t>
+    <t>元数据引擎</t>
+  </si>
+  <si>
+    <t>词频学习</t>
+  </si>
+  <si>
+    <t>分词匹配</t>
+  </si>
+  <si>
+    <t>标点符号的分组</t>
+  </si>
+  <si>
+    <t>BOO层</t>
   </si>
   <si>
     <t>知识链的查询与操作</t>
@@ -156,6 +170,12 @@
 2、 指定位置截断、指定位置向前向后删除，截取前段为域</t>
   </si>
   <si>
+    <t>父对象与子对象</t>
+  </si>
+  <si>
+    <t>类的产生、继承、去除、重载</t>
+  </si>
+  <si>
     <t>集合概念</t>
   </si>
   <si>
@@ -164,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">    有限集合</t>
-  </si>
-  <si>
-    <t>金爽</t>
   </si>
   <si>
     <t>有限集合的表示、存储、计算。
@@ -206,6 +223,9 @@
 4、任意比较：求同存异、生成父类、生成边界。</t>
   </si>
   <si>
+    <t>Mind管理器</t>
+  </si>
+  <si>
     <t>上下文处理</t>
   </si>
   <si>
@@ -213,13 +233,7 @@
 2、上下文的关联处理</t>
   </si>
   <si>
-    <t>Mind管理器</t>
-  </si>
-  <si>
     <t>Mind的合并与拆分</t>
-  </si>
-  <si>
-    <t>梁冰</t>
   </si>
   <si>
     <t>1、多Mind与集合的相互转换。
@@ -227,6 +241,9 @@
 1、2、3、4、5、6
 小亮是学生，还有小明。
 小明很高兴，因为考了100分。</t>
+  </si>
+  <si>
+    <t>Focus管理器</t>
   </si>
   <si>
     <t>DRW</t>
@@ -270,6 +287,15 @@
     <t xml:space="preserve">    多媒体感知引擎</t>
   </si>
   <si>
+    <t>记忆中枢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WorkingMemory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PersistentMemory</t>
+  </si>
+  <si>
     <t>建模中枢</t>
   </si>
   <si>
@@ -282,10 +308,10 @@
     <t xml:space="preserve">    模式提取引擎</t>
   </si>
   <si>
-    <t>1、构成角度：泛化抽象出类 ，牛是动物，能吃草，马是动物，能吃草，抽象出食草动物。2、知识链角度：（1）抽取关键字（集合模式） （2）结构的角度。a.修限关系，如RRR（中国人民银行），可提取为R。b.当一个句子中出现多个C时，提取模式。5253545556……c.因为K1所以K2。先对K1和K2进行分组，最后做C的模式。（3）知识链的语义角度：a.强关联，天下雨——天冷，超过一定阀值，就可自动推导。b.阈值。西游记里，猪能说话。其他地方是不对的，不一定强关联，但仍可以推导。3.语义指的是。根据输入创建意义的模式。模式分层，意义递进。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    分组引擎</t>
+    <t>1、构成角度：泛化抽象出类 ，牛是动物，能吃草，马是动物，能吃草，抽象出食草动物。2、知识链角度：（1）抽取关键字（集合模式） （2）结构的角度。a.修限关系，如RRR（中国人民银行），可提取为R。b.规则发现。当一个句子中出现多个C时，提取模式。123412341234，5253545556……c.因为K1所以K2。先对K1和K2进行分组，最后做C的模式（目前的方案是保存在因为所以里面）。d.非修限关系的实际对象链，例如：四十五（3）知识链的语义角度：a.强关联，天下雨——天冷，超过一定阀值，就可自动推导。b.阈值。西游记里，猪能说话。其他地方是不对的，不一定强关联，但仍可以推导。3.语义指的是。根据输入创建意义的模式。模式分层，意义递进。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    分组引擎（目前改由mind直接处理）</t>
   </si>
   <si>
     <t>1、RCR-C：第一次
@@ -295,12 +321,12 @@
 5、CA-A：又看，再看
 6、AC-A：走了
 7、CCC-C：1234
-8、RRR-R：中国建设银行
+8、RRR-R：中国建设银行（还发现一种情况：四十五）
 9、AAA-R/A：打跑了，开关，伟大
 10、RAR-R：小明打小丽</t>
   </si>
   <si>
-    <t xml:space="preserve">    关系推导引擎</t>
+    <t xml:space="preserve">    关系（逻辑）推导引擎</t>
   </si>
   <si>
     <t>20种基本逻辑关系
@@ -311,9 +337,6 @@
   </si>
   <si>
     <t>迁移中枢</t>
-  </si>
-  <si>
-    <t>核心是动作迁移</t>
   </si>
   <si>
     <t xml:space="preserve">    动作引擎</t>
@@ -331,17 +354,8 @@
     <t xml:space="preserve">    迁移引擎</t>
   </si>
   <si>
-    <t>1、迁移分组列表
+    <t>核心是动作迁移1、迁移分组列表
 2、关注点迁移</t>
-  </si>
-  <si>
-    <t>评估中枢</t>
-  </si>
-  <si>
-    <t>核心是评估输入和输出。
-将要输出内容和知识库中的知识匹配，评估其正确性。
----------------------------------------------------
-输入：牛有腿 （记忆：牛有腿） ==&gt; 正确。 输入：牛有腿 （记忆：牛是动物，动物有腿） ==&gt; 正确</t>
   </si>
   <si>
     <t xml:space="preserve">    联想引擎</t>
@@ -365,6 +379,15 @@
 风一样的男孩子</t>
   </si>
   <si>
+    <t>评估中枢</t>
+  </si>
+  <si>
+    <t>核心是评估输入和输出。
+将要输出内容和知识库中的知识匹配，评估其正确性。
+---------------------------------------------------
+输入：牛有腿 （记忆：牛有腿） ==&gt; 正确。 输入：牛有腿 （记忆：牛是动物，动物有腿） ==&gt; 正确</t>
+  </si>
+  <si>
     <t xml:space="preserve">    评估引擎</t>
   </si>
   <si>
@@ -372,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">    求同存异</t>
-  </si>
-  <si>
-    <t>类的产生、继承、重载</t>
   </si>
   <si>
     <t>断序、错序或乱序重排</t>
@@ -397,7 +417,7 @@
     <t xml:space="preserve">    指代语处理</t>
   </si>
   <si>
-    <t>1、属性指代：
+    <t>根据关注点引擎提供的结果1、属性指代：
    女 --&gt; 女人
    不是个男人 --&gt; 不是指性别，而是指男人的属性。
 2、任意对象指代：
@@ -523,6 +543,9 @@
     <t xml:space="preserve">    MetaData灌输</t>
   </si>
   <si>
+    <t>金爽</t>
+  </si>
+  <si>
     <t xml:space="preserve">    动词灌输</t>
   </si>
   <si>
@@ -541,6 +564,27 @@
     <t>修改系统参数</t>
   </si>
   <si>
+    <t>界面层</t>
+  </si>
+  <si>
+    <t>伏羲</t>
+  </si>
+  <si>
+    <t>面向网页</t>
+  </si>
+  <si>
+    <t>神农</t>
+  </si>
+  <si>
+    <t>面向Android</t>
+  </si>
+  <si>
+    <t>轩辕</t>
+  </si>
+  <si>
+    <t>面向iOS</t>
+  </si>
+  <si>
     <t>项目编号</t>
   </si>
   <si>
@@ -565,9 +609,6 @@
     <t>基础CRUD</t>
   </si>
   <si>
-    <t>苑鹏掣、梁冰</t>
-  </si>
-  <si>
     <t>分层操作</t>
   </si>
   <si>
@@ -746,6 +787,168 @@
   </si>
   <si>
     <t>测试全部最可能匹配进行分割输入字符串</t>
+  </si>
+  <si>
+    <t>女娲系统元素基本操作（BOO）一览表(Base Of Operations)</t>
+  </si>
+  <si>
+    <t>位置编号</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>操作（Operation）编号</t>
+  </si>
+  <si>
+    <t>操作（Operation）</t>
+  </si>
+  <si>
+    <t>底层</t>
+  </si>
+  <si>
+    <t>创建（create）</t>
+  </si>
+  <si>
+    <t>读取（retrieve/get，全部）</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
+  </si>
+  <si>
+    <t>根据Id读取</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
+  </si>
+  <si>
+    <t>根据primaryKeys读取</t>
+  </si>
+  <si>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>根据retrieveColumns读取</t>
+  </si>
+  <si>
+    <t>更新（update，全部）</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>更新weight</t>
+  </si>
+  <si>
+    <t>删除（delete）</t>
+  </si>
+  <si>
+    <t>元数据单对象</t>
+  </si>
+  <si>
+    <t>1.1-1.4</t>
+  </si>
+  <si>
+    <t>同0</t>
+  </si>
+  <si>
+    <t>实际对象单对象</t>
+  </si>
+  <si>
+    <t>2.1-2.4</t>
+  </si>
+  <si>
+    <t>MetaData单对象-MetaData单对象（2元）</t>
+  </si>
+  <si>
+    <t>Id比较</t>
+  </si>
+  <si>
+    <t>顺序关联3.2.1-3.2.4（MetaNet）</t>
+  </si>
+  <si>
+    <t>组合新对象3.3.1-3.3.4（MetaData）</t>
+  </si>
+  <si>
+    <t>RealObject单对象-RealObject单对象（2元）</t>
+  </si>
+  <si>
+    <t>顺序关联4.2.1-4.2.4（MetaNet）</t>
+  </si>
+  <si>
+    <t>组合新对象4.3.1-4.3.4（MetaData）</t>
+  </si>
+  <si>
+    <t>同步两个对象，保证同一性的操作（两个对象变一个对象，同步Id）</t>
+  </si>
+  <si>
+    <t>MetaData单对象-RealObject单对象（2元）</t>
+  </si>
+  <si>
+    <t>分层关联5.1.1-5.1.4</t>
+  </si>
+  <si>
+    <t>分层关联度5.2.1-5.2.4</t>
+  </si>
+  <si>
+    <t>MetaData对象-MetaData单对象（n元）</t>
+  </si>
+  <si>
+    <t>5、顺序关联01-04（MetaNet）</t>
+  </si>
+  <si>
+    <t>6、组合新对象01-04（MetaData）</t>
+  </si>
+  <si>
+    <t>RealObject单对象-RealObject单对象（n元）</t>
+  </si>
+  <si>
+    <t>6、Id比较</t>
+  </si>
+  <si>
+    <t>7、顺序关联01-04（Knowledge）</t>
+  </si>
+  <si>
+    <t>8、组合新对象01-04（RealObject）</t>
+  </si>
+  <si>
+    <t>9、</t>
+  </si>
+  <si>
+    <t>MetaNet单对象</t>
+  </si>
+  <si>
+    <t>5、Id比较</t>
+  </si>
+  <si>
+    <t>Knowledge单对象</t>
+  </si>
+  <si>
+    <t>MetaNet单对象-MetaNet单对象（2元）</t>
+  </si>
+  <si>
+    <t>Knowledge单对象-Knowledge单对象（2元）</t>
+  </si>
+  <si>
+    <t>MetaNet单对象-MetaNet单对象（n元）</t>
+  </si>
+  <si>
+    <t>Knowledge单对象-Knowledge单对象（n元）</t>
+  </si>
+  <si>
+    <t>MetaData单对象-MetaNet单对象（2元）</t>
+  </si>
+  <si>
+    <t>RealObject单对象-Knowledge单对象（2元）</t>
+  </si>
+  <si>
+    <t>查找在知识链之中的位置</t>
+  </si>
+  <si>
+    <t>Knowledge转RealObject集合</t>
+  </si>
+  <si>
+    <t>RealObject集合转Knowledge</t>
   </si>
 </sst>
 </file>
@@ -753,16 +956,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12.6"/>
+      <color rgb="FF0073BF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -800,7 +1023,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,9 +1046,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,34 +1074,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,6 +1105,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -883,9 +1120,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,57 +1160,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,7 +1200,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,43 +1302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,19 +1326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,13 +1374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,19 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,47 +1422,69 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1186,11 +1503,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,6 +1571,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,47 +1629,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,174 +1642,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1470,113 +1854,227 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1926,1330 +2424,1505 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="103" zoomScaleSheetLayoutView="100" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="103" zoomScaleSheetLayoutView="100" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.82407407407407" style="14" customWidth="1"/>
-    <col min="2" max="2" width="22.9074074074074" style="14" customWidth="1"/>
-    <col min="3" max="3" width="6.77777777777778" style="14" customWidth="1"/>
-    <col min="4" max="5" width="15.7314814814815" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.12962962962963" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14" customWidth="1"/>
-    <col min="8" max="8" width="17.6388888888889" style="17" customWidth="1"/>
-    <col min="9" max="9" width="53.6296296296296" style="14" customWidth="1"/>
-    <col min="10" max="256" width="10" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9.82407407407407" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.9074074074074" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.77777777777778" style="24" customWidth="1"/>
+    <col min="4" max="5" width="15.7314814814815" style="25" customWidth="1"/>
+    <col min="6" max="6" width="7.12962962962963" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9" style="24" customWidth="1"/>
+    <col min="8" max="8" width="17.6388888888889" style="27" customWidth="1"/>
+    <col min="9" max="9" width="53.6296296296296" style="24" customWidth="1"/>
+    <col min="10" max="256" width="10" style="24" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" s="22" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35">
         <v>42339</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="37">
         <v>6</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="38">
         <v>42331</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="38">
         <v>42338</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="39">
         <v>1</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="38"/>
+      <c r="I4" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35">
         <v>42362</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="45">
         <v>3</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="46">
         <v>42339</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="46">
         <v>42341</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="47">
         <v>1</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="33" t="s">
+      <c r="G11" s="45" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="33" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="33">
+    </row>
+    <row r="12" ht="28.8" spans="1:9">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="45">
         <v>2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="46">
         <v>42342</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="46">
         <v>42345</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="47">
         <v>1</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" ht="72" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="36" t="s">
+      <c r="G12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" ht="57.6" spans="1:9">
+      <c r="A13" s="44"/>
+      <c r="B13" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="45">
+        <v>4</v>
+      </c>
+      <c r="D13" s="49">
+        <v>42341</v>
+      </c>
+      <c r="E13" s="49">
+        <v>42346</v>
+      </c>
+      <c r="F13" s="47">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:9">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="45">
+        <v>3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>42347</v>
+      </c>
+      <c r="E14" s="46">
+        <v>42349</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" ht="28.8" spans="1:9">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" ht="28.8" spans="1:9">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47">
+        <v>1</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" s="23" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A17" s="44"/>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25">
+        <v>42374</v>
+      </c>
+      <c r="E17" s="25">
+        <v>42381</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:9">
+      <c r="A18" s="44"/>
+      <c r="B18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="44"/>
+      <c r="B19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="44"/>
+      <c r="B20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="33">
-        <v>4</v>
-      </c>
-      <c r="D13" s="37">
-        <v>42341</v>
-      </c>
-      <c r="E13" s="37">
-        <v>42346</v>
-      </c>
-      <c r="F13" s="35">
-        <v>1</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="36" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="44"/>
+      <c r="B21" s="50" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="33">
-        <v>3</v>
-      </c>
-      <c r="D14" s="34">
-        <v>42347</v>
-      </c>
-      <c r="E14" s="34">
-        <v>42349</v>
-      </c>
-      <c r="F14" s="35">
-        <v>1</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="33" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="44"/>
+      <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="33">
-        <v>8</v>
-      </c>
-      <c r="D15" s="34">
-        <v>42352</v>
-      </c>
-      <c r="E15" s="34">
-        <v>42362</v>
-      </c>
-      <c r="F15" s="35">
-        <v>1</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="33" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="44"/>
+      <c r="B23" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35">
-        <v>1</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" s="13" customFormat="1" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="52"/>
+      <c r="B24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15">
-        <v>42374</v>
-      </c>
-      <c r="E17" s="15">
-        <v>42381</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="30" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="12"/>
-      <c r="B24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" ht="43.2" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="B25" s="54" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" ht="43.2" spans="1:9">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" ht="72" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="55"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" ht="43.2" spans="1:9">
+      <c r="A29" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14">
+      <c r="B29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="58"/>
+      <c r="B30" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="43.2" spans="1:9">
+      <c r="A31" s="58"/>
+      <c r="B31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="72" spans="1:9">
+      <c r="A32" s="58"/>
+      <c r="B32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="24">
         <v>10</v>
       </c>
-      <c r="D27" s="15">
-        <v>42375</v>
-      </c>
-      <c r="E27" s="15">
-        <v>42388</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" ht="72" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="G32" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" ht="72" spans="1:9">
+      <c r="A33" s="58"/>
+      <c r="B33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="24">
         <v>20</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" ht="57.6" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" ht="86.4" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" ht="28.8" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="B31" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="30" t="s">
+      <c r="G33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" ht="72" spans="1:9">
-      <c r="A32" s="23" t="s">
+    <row r="34" ht="57.6" spans="1:9">
+      <c r="A34" s="58"/>
+      <c r="B34" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="I34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="33" t="s">
+    </row>
+    <row r="35" ht="86.4" spans="1:9">
+      <c r="A35" s="59"/>
+      <c r="B35" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33" t="s">
+      <c r="I35" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="23" t="s">
+    <row r="36" ht="28.8" spans="1:9">
+      <c r="A36" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B36" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="40" t="s">
+    <row r="37" ht="72" spans="1:9">
+      <c r="A37" s="61"/>
+      <c r="B37" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="41" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" ht="129.6" spans="1:9">
-      <c r="A35" s="40"/>
-      <c r="B35" s="30" t="s">
+    <row r="38" ht="28.8" spans="1:9">
+      <c r="A38" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="30" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="40"/>
-      <c r="B36" s="30" t="s">
+      <c r="B39" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="40"/>
-      <c r="B37" s="30" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="40"/>
-      <c r="B38" s="30" t="s">
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="40"/>
-      <c r="B39" s="30" t="s">
+      <c r="B40" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" ht="21" customHeight="1" spans="1:9">
-      <c r="A40" s="12" t="s">
+    </row>
+    <row r="41" ht="129.6" spans="1:9">
+      <c r="A41" s="44"/>
+      <c r="B41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="43" t="s">
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="44"/>
+      <c r="B42" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" ht="159" customHeight="1" spans="1:9">
-      <c r="A42" s="12"/>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="44"/>
+      <c r="B43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="40"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="44"/>
+      <c r="B44" s="40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" ht="144" spans="1:9">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="40"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="52"/>
+      <c r="B45" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="40"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" ht="72" spans="1:9">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="68"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="71"/>
+      <c r="B47" s="68" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="12" t="s">
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" ht="21" customHeight="1" spans="1:9">
+      <c r="A48" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B48" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I48" s="81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" ht="100.8" spans="1:9">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" ht="159" customHeight="1" spans="1:9">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" ht="28.8" spans="1:9">
-      <c r="A47" s="12"/>
-      <c r="B47" s="14" t="s">
+      <c r="I50" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="14" t="s">
+    </row>
+    <row r="51" ht="144" spans="1:9">
+      <c r="A51" s="22"/>
+      <c r="B51" s="24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" ht="72" spans="1:9">
-      <c r="A48" s="40" t="s">
+      <c r="I51" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="41" t="s">
+    </row>
+    <row r="52" ht="72" spans="1:9">
+      <c r="A52" s="22"/>
+      <c r="B52" s="24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" ht="57.6" spans="1:9">
-      <c r="A49" s="40"/>
-      <c r="B49" s="30" t="s">
+      <c r="I52" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="30" t="s">
+    </row>
+    <row r="53" ht="100.8" spans="1:9">
+      <c r="A53" s="73" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" ht="100.8" spans="1:9">
-      <c r="A50" s="40"/>
-      <c r="B50" s="30" t="s">
+      <c r="B53" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="30" t="s">
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="40"/>
-      <c r="B51" s="30" t="s">
+    <row r="54" ht="28.8" spans="1:9">
+      <c r="A54" s="77"/>
+      <c r="B54" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="30" t="s">
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="40"/>
-      <c r="B52" s="30" t="s">
+    <row r="55" ht="57.6" spans="1:9">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="30" t="s">
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="78" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="40"/>
-      <c r="B53" s="30" t="s">
+    <row r="56" ht="100.8" spans="1:9">
+      <c r="A56" s="78"/>
+      <c r="B56" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="30" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" ht="86.4" spans="1:9">
-      <c r="A54" s="40"/>
-      <c r="B54" s="30" t="s">
+    <row r="57" ht="72" spans="1:9">
+      <c r="A57" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="30" t="s">
+      <c r="B57" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="66" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" ht="129.6" spans="1:9">
-      <c r="A55" s="40"/>
-      <c r="B55" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="40"/>
-      <c r="B56" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" ht="28.8" spans="1:9">
-      <c r="A57" s="40"/>
-      <c r="B57" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="40"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="40" t="s">
+    </row>
+    <row r="61" ht="86.4" spans="1:9">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="41" t="s">
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" ht="144" spans="1:9">
-      <c r="A60" s="40"/>
-      <c r="B60" s="30" t="s">
+    <row r="62" ht="129.6" spans="1:9">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="38" t="s">
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" s="13" customFormat="1" spans="1:9">
-      <c r="A61" s="40" t="s">
+    <row r="63" spans="1:9">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" s="13" customFormat="1" spans="1:9">
-      <c r="A62" s="40"/>
-      <c r="B62" s="30" t="s">
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="40"/>
+    </row>
+    <row r="64" ht="28.8" spans="1:9">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" s="13" customFormat="1" spans="1:9">
-      <c r="A63" s="40"/>
-      <c r="B63" s="30" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="40"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="12" t="s">
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B66" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="12"/>
-      <c r="B65" s="30" t="s">
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="12"/>
-      <c r="B66" s="30" t="s">
+    </row>
+    <row r="67" ht="144" spans="1:9">
+      <c r="A67" s="82"/>
+      <c r="B67" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="12"/>
-      <c r="B67" s="30" t="s">
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="12"/>
-      <c r="B68" s="30" t="s">
+    </row>
+    <row r="68" s="23" customFormat="1" spans="1:9">
+      <c r="A68" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="12"/>
-      <c r="B69" s="30" t="s">
+      <c r="B68" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="40"/>
+    </row>
+    <row r="69" s="23" customFormat="1" spans="1:9">
+      <c r="A69" s="87"/>
+      <c r="B69" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" ht="43.2" spans="1:9">
-      <c r="A70" s="12"/>
-      <c r="B70" s="14" t="s">
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="40"/>
+    </row>
+    <row r="70" s="23" customFormat="1" spans="1:9">
+      <c r="A70" s="87"/>
+      <c r="B70" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="40"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="22" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="12"/>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="40"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="22"/>
+      <c r="B72" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="22"/>
+      <c r="B73" s="40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="14" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="40"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="22"/>
+      <c r="B74" s="40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="40"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="22"/>
+      <c r="B75" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="12"/>
-      <c r="B74" s="30" t="s">
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="40"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="22"/>
+      <c r="B76" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="14" t="s">
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" ht="43.2" spans="1:9">
+      <c r="A77" s="22"/>
+      <c r="B77" s="24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" ht="28.8" spans="1:9">
-      <c r="A76" s="12"/>
-      <c r="B76" s="33" t="s">
+      <c r="I77" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="33">
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="22"/>
+      <c r="B78" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="22"/>
+      <c r="B81" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="22"/>
+      <c r="B82" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="1:9">
+      <c r="A83" s="22"/>
+      <c r="B83" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="45">
         <v>5</v>
       </c>
-      <c r="D76" s="34">
+      <c r="D83" s="46">
         <v>42366</v>
       </c>
-      <c r="E76" s="34">
+      <c r="E83" s="46">
         <v>42374</v>
       </c>
-      <c r="F76" s="35">
+      <c r="F83" s="47">
         <v>1</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G83" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" ht="72" spans="1:9">
-      <c r="A77" s="12"/>
-      <c r="B77" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="12"/>
-      <c r="B78" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" s="13" customFormat="1" spans="1:9">
-      <c r="A79" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="45"/>
-    </row>
-    <row r="80" s="13" customFormat="1" spans="1:9">
-      <c r="A80" s="44"/>
-      <c r="B80" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25">
+      <c r="H83" s="46"/>
+      <c r="I83" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" ht="72" spans="1:9">
+      <c r="A84" s="22"/>
+      <c r="B84" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="22"/>
+      <c r="B85" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="40"/>
+    </row>
+    <row r="86" s="23" customFormat="1" spans="1:9">
+      <c r="A86" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="89"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="89"/>
+    </row>
+    <row r="87" s="23" customFormat="1" spans="1:9">
+      <c r="A87" s="88"/>
+      <c r="B87" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="35">
         <v>42374</v>
       </c>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" s="13" customFormat="1" spans="1:9">
-      <c r="A81" s="44"/>
-      <c r="B81" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" s="33">
+      <c r="I87" s="34"/>
+    </row>
+    <row r="88" s="23" customFormat="1" spans="1:9">
+      <c r="A88" s="88"/>
+      <c r="B88" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="45">
         <v>1</v>
       </c>
-      <c r="D81" s="34">
+      <c r="D88" s="46">
         <v>42363</v>
       </c>
-      <c r="E81" s="34">
+      <c r="E88" s="46">
         <v>42363</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F88" s="47">
         <v>1</v>
       </c>
-      <c r="G81" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="34"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" s="13" customFormat="1" spans="1:9">
-      <c r="A82" s="44"/>
-      <c r="B82" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="33">
+      <c r="G88" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="46"/>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" s="23" customFormat="1" spans="1:9">
+      <c r="A89" s="88"/>
+      <c r="B89" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="45">
         <v>1</v>
       </c>
-      <c r="D82" s="34">
+      <c r="D89" s="46">
         <v>42366</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E89" s="46">
         <v>42366</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F89" s="47">
         <v>1</v>
       </c>
-      <c r="G82" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="34"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" s="13" customFormat="1" spans="1:9">
-      <c r="A83" s="44"/>
-      <c r="B83" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="33">
+      <c r="G89" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H89" s="46"/>
+      <c r="I89" s="45"/>
+    </row>
+    <row r="90" s="23" customFormat="1" spans="1:9">
+      <c r="A90" s="88"/>
+      <c r="B90" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="45">
         <v>1</v>
       </c>
-      <c r="D83" s="34">
+      <c r="D90" s="46">
         <v>42367</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E90" s="46">
         <v>42367</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F90" s="47">
         <v>1</v>
       </c>
-      <c r="G83" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="34"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" s="13" customFormat="1" spans="1:9">
-      <c r="A84" s="44"/>
-      <c r="B84" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C84" s="33">
+      <c r="G90" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H90" s="46"/>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" s="23" customFormat="1" spans="1:9">
+      <c r="A91" s="88"/>
+      <c r="B91" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="45">
         <v>4</v>
       </c>
-      <c r="D84" s="34">
+      <c r="D91" s="46">
         <v>42368</v>
       </c>
-      <c r="E84" s="34">
+      <c r="E91" s="46">
         <v>42009</v>
       </c>
-      <c r="F84" s="35">
+      <c r="F91" s="47">
         <v>1</v>
       </c>
-      <c r="G84" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" s="34"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="44"/>
-      <c r="B85" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="44"/>
-      <c r="B86" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="44"/>
-      <c r="B87" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="30"/>
+      <c r="G91" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" s="46"/>
+      <c r="I91" s="45"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="88"/>
+      <c r="B92" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="40"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="88"/>
+      <c r="B93" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="40"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="88"/>
+      <c r="B94" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="40"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="92"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="92"/>
+      <c r="B96" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="92"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="92"/>
+      <c r="B97" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="92" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A31"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A86:A94"/>
   </mergeCells>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="16383" man="1"/>
+    <brk id="58" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3259,495 +3932,495 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="8"/>
-    <col min="2" max="2" width="19.3333333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" style="5" customWidth="1"/>
-    <col min="4" max="5" width="15.7777777777778" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.7777777777778" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.7592592592593" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" style="5"/>
-    <col min="10" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="1" width="8.88888888888889" style="18"/>
+    <col min="2" max="2" width="19.3333333333333" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31.8888888888889" style="15" customWidth="1"/>
+    <col min="4" max="5" width="15.7777777777778" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.7777777777778" style="15" customWidth="1"/>
+    <col min="8" max="8" width="30.7592592592593" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" style="15"/>
+    <col min="10" max="16384" width="8.88888888888889" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="A1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="B2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="20">
         <f>E2-D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8">
+      <c r="A3" s="18">
         <v>1.1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="19">
         <v>42331</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="20">
         <f t="shared" ref="F3:F14" si="0">E3-D3</f>
         <v>-42331</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="19">
         <v>43315</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>-43315</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>56</v>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="18">
         <v>2.1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="C6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>147</v>
+      <c r="G6" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="18">
         <v>2.2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="C7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
+      <c r="G7" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="18">
         <v>2.3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="C8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>147</v>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="A9" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>56</v>
+      <c r="G9" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="A10" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>56</v>
+      <c r="G10" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="18">
         <v>2.4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="C11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>147</v>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>147</v>
+      <c r="C12" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="19">
         <v>43358</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="19">
         <v>43363</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="20">
         <f>E13-D13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>56</v>
+      <c r="G13" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="19">
         <v>43434</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="19">
         <v>43436</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="20">
         <v>3</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
+      <c r="G14" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="19">
         <v>43435</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="19">
         <v>43436</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="20">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
+      <c r="G15" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="19">
         <v>43437</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>56</v>
+      <c r="G16" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="19">
         <v>43454</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="19">
         <v>43464</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>56</v>
+      <c r="G17" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="19">
         <v>43359</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="19">
         <v>43364</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="20">
         <f>E18-D18</f>
         <v>5</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>56</v>
+      <c r="G18" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="C19" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="19">
         <v>43434</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="19">
         <v>43436</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="20">
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>56</v>
+      <c r="G19" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="B20" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="19">
         <v>43369</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="20">
         <f>E20-D20</f>
         <v>43369</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>168</v>
+      <c r="G20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>170</v>
+      <c r="C21" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" ht="195" customHeight="1" spans="3:8">
-      <c r="C22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="19">
         <v>43465</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>172</v>
+      <c r="G22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="B23" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="19">
         <v>43369</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>175</v>
+      <c r="G23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>56</v>
+      <c r="C24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="19">
         <v>43370</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>56</v>
+      <c r="G25" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>56</v>
+      <c r="B26" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="B27" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="19">
         <v>43451</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>56</v>
+      <c r="G27" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="B28" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="19">
         <v>43480</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="19">
         <v>43481</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>56</v>
+      <c r="G28" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="B29" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="19">
         <v>43482</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="19">
         <v>43482</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>56</v>
+      <c r="G29" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="2:7">
-      <c r="B30" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="B30" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="19">
         <v>43484</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="19">
         <v>43484</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>56</v>
+      <c r="G30" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="B31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="19">
         <v>43485</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="19">
         <v>43487</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>56</v>
+      <c r="G31" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="B32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="19">
         <v>43486</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="19">
         <v>43487</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>56</v>
+      <c r="G32" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3767,684 +4440,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.5462962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.2685185185185" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.3611111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6388888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1851851851852" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="10.5462962962963" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.4444444444444" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39.2685185185185" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39" style="11" customWidth="1"/>
+    <col min="6" max="6" width="34.3611111111111" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.6388888888889" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.1851851851852" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>194</v>
+      <c r="A1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="14">
         <v>43231.7916666667</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>199</v>
+      <c r="H2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="D3" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="14">
         <v>43231.7916666667</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>199</v>
+      <c r="H3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="D4" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="14">
         <v>43232.4583333333</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>199</v>
+      <c r="H4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="D5" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="14">
         <v>43232.4583333333</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>199</v>
+      <c r="H5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="14">
         <v>43233.9166666667</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>199</v>
+      <c r="H6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>199</v>
+      <c r="F7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>199</v>
+      <c r="F8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>199</v>
+      <c r="F9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>199</v>
+      <c r="H10" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>199</v>
+      <c r="H11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>199</v>
+      <c r="H12" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>199</v>
+      <c r="H13" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>199</v>
+      <c r="H14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>199</v>
+      <c r="H15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>199</v>
+      <c r="H16" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1">
+      <c r="A42" s="11">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="1">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="1">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
     </row>
@@ -4458,14 +5131,476 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="35.55" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:4">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" ht="18.15" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" ht="18.15" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" ht="18.15" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" ht="18.15" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" ht="18.15" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" ht="18.15" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" ht="18.15" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" ht="18.15" spans="1:4">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" ht="18.15" spans="1:4">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:4">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" ht="18.15" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" ht="18.15" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" ht="18.15" spans="1:4">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4.1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" ht="18.15" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" ht="18.15" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" ht="18.15" spans="1:4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5">
+        <v>4.4</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" ht="18.15" spans="1:4">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5.1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" ht="18.15" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" ht="18.15" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" ht="18.15" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="26" ht="18.15" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" ht="18.15" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" ht="18.15" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" ht="18.15" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A30" s="4">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" ht="18.15" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A32" s="4">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" ht="18.15" spans="1:4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" ht="15.9" customHeight="1" spans="1:4">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" ht="18.15" spans="1:4">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/doc/5-女娲系统设计方案.xlsx
+++ b/doc/5-女娲系统设计方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统设计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="282">
   <si>
     <t>女娲智脑系统设计表</t>
   </si>
@@ -726,6 +726,24 @@
     <t>增加organ、runtime文件夹</t>
   </si>
   <si>
+    <t>内外部关联独立</t>
+  </si>
+  <si>
+    <t>理解为，想，etc</t>
+  </si>
+  <si>
+    <t>knowledge各元素的特殊组合</t>
+  </si>
+  <si>
+    <t>R-R，A-A，etc</t>
+  </si>
+  <si>
+    <t>向下查找的权重处理</t>
+  </si>
+  <si>
+    <t>有-组件、属性，etc</t>
+  </si>
+  <si>
     <t>测试编号</t>
   </si>
   <si>
@@ -956,12 +974,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1023,81 +1041,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1129,7 +1072,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,15 +1168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,7 +1260,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1326,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1380,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,103 +1422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,43 +1434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,17 +1558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1559,17 +1571,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1605,11 +1615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,9 +1647,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,10 +1663,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1657,137 +1675,137 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,9 +1831,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2426,1476 +2441,1476 @@
   <sheetPr/>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="103" zoomScaleSheetLayoutView="100" topLeftCell="A22" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="103" zoomScaleSheetLayoutView="100" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.82407407407407" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.9074074074074" style="24" customWidth="1"/>
-    <col min="3" max="3" width="6.77777777777778" style="24" customWidth="1"/>
-    <col min="4" max="5" width="15.7314814814815" style="25" customWidth="1"/>
-    <col min="6" max="6" width="7.12962962962963" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.6388888888889" style="27" customWidth="1"/>
-    <col min="9" max="9" width="53.6296296296296" style="24" customWidth="1"/>
-    <col min="10" max="256" width="10" style="24" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9.82407407407407" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.9074074074074" style="23" customWidth="1"/>
+    <col min="3" max="3" width="6.77777777777778" style="23" customWidth="1"/>
+    <col min="4" max="5" width="15.7314814814815" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.12962962962963" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.6388888888889" style="26" customWidth="1"/>
+    <col min="9" max="9" width="53.6296296296296" style="23" customWidth="1"/>
+    <col min="10" max="256" width="10" style="23" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:9">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" s="22" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" s="21" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34">
         <v>42339</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="33"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>6</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>42331</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>42338</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="33"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="40" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="40" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="33"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34">
         <v>42362</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:9">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="44">
         <v>3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>42339</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>42341</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>1</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:9">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="44">
         <v>2</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>42342</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>42345</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>1</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" ht="57.6" spans="1:9">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="44">
         <v>4</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="48">
         <v>42341</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <v>42346</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>1</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="48" t="s">
+      <c r="H13" s="45"/>
+      <c r="I13" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:9">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>3</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>42347</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>42349</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <v>1</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" ht="28.8" spans="1:9">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="45" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" ht="28.8" spans="1:9">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>0</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46">
         <v>1</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" s="23" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A17" s="44"/>
-      <c r="B17" s="24" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" s="22" customFormat="1" ht="28.8" spans="1:9">
+      <c r="A17" s="43"/>
+      <c r="B17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>5</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>42374</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>42381</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:9">
-      <c r="A18" s="44"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="40" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="44"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="44"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="44"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="40" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="50"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="44"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="40" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="40" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="52"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="54" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="54" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="54" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" ht="43.2" spans="1:9">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="58"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:9">
-      <c r="A31" s="58"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:9">
-      <c r="A32" s="58"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>10</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="72" spans="1:9">
-      <c r="A33" s="58"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>20</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" ht="57.6" spans="1:9">
-      <c r="A34" s="58"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" ht="86.4" spans="1:9">
-      <c r="A35" s="59"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:9">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="40" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="39" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" ht="72" spans="1:9">
-      <c r="A37" s="61"/>
-      <c r="B37" s="45" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="45" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="45" t="s">
+      <c r="H37" s="45"/>
+      <c r="I37" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:9">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="63"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="45" t="s">
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="45" t="s">
+      <c r="H39" s="45"/>
+      <c r="I39" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="66" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="129.6" spans="1:9">
-      <c r="A41" s="44"/>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="40" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="44"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="40"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="39"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="44"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="40"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="39"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="44"/>
-      <c r="B44" s="40" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="52"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="68"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="71"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="68"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:9">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="81" t="s">
+      <c r="I48" s="80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" ht="159" customHeight="1" spans="1:9">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" ht="144" spans="1:9">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:9">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" ht="100.8" spans="1:9">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="74" t="s">
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="73" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:9">
-      <c r="A54" s="77"/>
-      <c r="B54" s="74" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="74" t="s">
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="73" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" ht="57.6" spans="1:9">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78" t="s">
+      <c r="A55" s="77"/>
+      <c r="B55" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="78" t="s">
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="77" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" ht="100.8" spans="1:9">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78" t="s">
+      <c r="A56" s="77"/>
+      <c r="B56" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="78" t="s">
+      <c r="C56" s="77"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="77" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" ht="72" spans="1:9">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="66" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="65" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="40" t="s">
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="39" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40" t="s">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="39"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40" t="s">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="40" t="s">
+      <c r="C60" s="39"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="39" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" ht="86.4" spans="1:9">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40" t="s">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="40" t="s">
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" ht="129.6" spans="1:9">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="40" t="s">
+      <c r="C62" s="39"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="40"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="39"/>
     </row>
     <row r="64" ht="28.8" spans="1:9">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="40"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="39"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="40"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="39"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="83" t="s">
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="82" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="67" ht="144" spans="1:9">
-      <c r="A67" s="82"/>
-      <c r="B67" s="84" t="s">
+      <c r="A67" s="81"/>
+      <c r="B67" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="95" t="s">
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="94" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" s="23" customFormat="1" spans="1:9">
-      <c r="A68" s="87" t="s">
+    <row r="68" s="22" customFormat="1" spans="1:9">
+      <c r="A68" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="40"/>
-    </row>
-    <row r="69" s="23" customFormat="1" spans="1:9">
-      <c r="A69" s="87"/>
-      <c r="B69" s="40" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="39"/>
+    </row>
+    <row r="69" s="22" customFormat="1" spans="1:9">
+      <c r="A69" s="86"/>
+      <c r="B69" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="40"/>
-    </row>
-    <row r="70" s="23" customFormat="1" spans="1:9">
-      <c r="A70" s="87"/>
-      <c r="B70" s="40" t="s">
+      <c r="C69" s="39"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="39"/>
+    </row>
+    <row r="70" s="22" customFormat="1" spans="1:9">
+      <c r="A70" s="86"/>
+      <c r="B70" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="40"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="22"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="22"/>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="40"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="22"/>
-      <c r="B74" s="40" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="22"/>
-      <c r="B75" s="40" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="22"/>
-      <c r="B76" s="40" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="40"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="39"/>
     </row>
     <row r="77" ht="43.2" spans="1:9">
-      <c r="A77" s="22"/>
-      <c r="B77" s="24" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="22"/>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I78" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="22"/>
-      <c r="B81" s="40" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="40"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="39"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="22"/>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="83" ht="28.8" spans="1:9">
-      <c r="A83" s="22"/>
-      <c r="B83" s="45" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="44">
         <v>5</v>
       </c>
-      <c r="D83" s="46">
+      <c r="D83" s="45">
         <v>42366</v>
       </c>
-      <c r="E83" s="46">
+      <c r="E83" s="45">
         <v>42374</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="46">
         <v>1</v>
       </c>
-      <c r="G83" s="45" t="s">
+      <c r="G83" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="45" t="s">
+      <c r="H83" s="45"/>
+      <c r="I83" s="44" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="84" ht="72" spans="1:9">
-      <c r="A84" s="22"/>
-      <c r="B84" s="40" t="s">
+      <c r="A84" s="21"/>
+      <c r="B84" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="50" t="s">
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="22"/>
-      <c r="B85" s="40" t="s">
+      <c r="A85" s="21"/>
+      <c r="B85" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C85" s="40"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="40"/>
-    </row>
-    <row r="86" s="23" customFormat="1" spans="1:9">
-      <c r="A86" s="88" t="s">
+      <c r="C85" s="39"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" s="22" customFormat="1" spans="1:9">
+      <c r="A86" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="89" t="s">
+      <c r="B86" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="89"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="89"/>
-    </row>
-    <row r="87" s="23" customFormat="1" spans="1:9">
-      <c r="A87" s="88"/>
-      <c r="B87" s="34" t="s">
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="88"/>
+    </row>
+    <row r="87" s="22" customFormat="1" spans="1:9">
+      <c r="A87" s="87"/>
+      <c r="B87" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35">
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34">
         <v>42374</v>
       </c>
-      <c r="I87" s="34"/>
-    </row>
-    <row r="88" s="23" customFormat="1" spans="1:9">
-      <c r="A88" s="88"/>
-      <c r="B88" s="45" t="s">
+      <c r="I87" s="33"/>
+    </row>
+    <row r="88" s="22" customFormat="1" spans="1:9">
+      <c r="A88" s="87"/>
+      <c r="B88" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="44">
         <v>1</v>
       </c>
-      <c r="D88" s="46">
+      <c r="D88" s="45">
         <v>42363</v>
       </c>
-      <c r="E88" s="46">
+      <c r="E88" s="45">
         <v>42363</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="46">
         <v>1</v>
       </c>
-      <c r="G88" s="45" t="s">
+      <c r="G88" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H88" s="46"/>
-      <c r="I88" s="45"/>
-    </row>
-    <row r="89" s="23" customFormat="1" spans="1:9">
-      <c r="A89" s="88"/>
-      <c r="B89" s="45" t="s">
+      <c r="H88" s="45"/>
+      <c r="I88" s="44"/>
+    </row>
+    <row r="89" s="22" customFormat="1" spans="1:9">
+      <c r="A89" s="87"/>
+      <c r="B89" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="45">
+      <c r="C89" s="44">
         <v>1</v>
       </c>
-      <c r="D89" s="46">
+      <c r="D89" s="45">
         <v>42366</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="45">
         <v>42366</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89" s="46">
         <v>1</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H89" s="46"/>
-      <c r="I89" s="45"/>
-    </row>
-    <row r="90" s="23" customFormat="1" spans="1:9">
-      <c r="A90" s="88"/>
-      <c r="B90" s="45" t="s">
+      <c r="H89" s="45"/>
+      <c r="I89" s="44"/>
+    </row>
+    <row r="90" s="22" customFormat="1" spans="1:9">
+      <c r="A90" s="87"/>
+      <c r="B90" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="44">
         <v>1</v>
       </c>
-      <c r="D90" s="46">
+      <c r="D90" s="45">
         <v>42367</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="45">
         <v>42367</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="46">
         <v>1</v>
       </c>
-      <c r="G90" s="45" t="s">
+      <c r="G90" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H90" s="46"/>
-      <c r="I90" s="45"/>
-    </row>
-    <row r="91" s="23" customFormat="1" spans="1:9">
-      <c r="A91" s="88"/>
-      <c r="B91" s="45" t="s">
+      <c r="H90" s="45"/>
+      <c r="I90" s="44"/>
+    </row>
+    <row r="91" s="22" customFormat="1" spans="1:9">
+      <c r="A91" s="87"/>
+      <c r="B91" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C91" s="44">
         <v>4</v>
       </c>
-      <c r="D91" s="46">
+      <c r="D91" s="45">
         <v>42368</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="45">
         <v>42009</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91" s="46">
         <v>1</v>
       </c>
-      <c r="G91" s="45" t="s">
+      <c r="G91" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H91" s="46"/>
-      <c r="I91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="44"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="88"/>
-      <c r="B92" s="40" t="s">
+      <c r="A92" s="87"/>
+      <c r="B92" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="40"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="39"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="88"/>
-      <c r="B93" s="40" t="s">
+      <c r="A93" s="87"/>
+      <c r="B93" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="40"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="39"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="88"/>
-      <c r="B94" s="40" t="s">
+      <c r="A94" s="87"/>
+      <c r="B94" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="40"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="39"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="92" t="s">
+      <c r="A95" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="92" t="s">
+      <c r="C95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="91" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="92"/>
-      <c r="B96" s="92" t="s">
+      <c r="A96" s="91"/>
+      <c r="B96" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="92"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="93"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="93"/>
-      <c r="I96" s="92" t="s">
+      <c r="C96" s="91"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="91" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="92"/>
-      <c r="B97" s="92" t="s">
+      <c r="A97" s="91"/>
+      <c r="B97" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="93"/>
-      <c r="I97" s="92" t="s">
+      <c r="C97" s="91"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="91" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3930,497 +3945,521 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="18"/>
-    <col min="2" max="2" width="19.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="31.8888888888889" style="15" customWidth="1"/>
-    <col min="4" max="5" width="15.7777777777778" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.7777777777778" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.7777777777778" style="15" customWidth="1"/>
-    <col min="8" max="8" width="30.7592592592593" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" style="15"/>
-    <col min="10" max="16384" width="8.88888888888889" style="15"/>
+    <col min="1" max="1" width="8.88888888888889" style="17"/>
+    <col min="2" max="2" width="19.3333333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.8888888888889" style="14" customWidth="1"/>
+    <col min="4" max="5" width="15.7777777777778" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.7777777777778" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.7777777777778" style="14" customWidth="1"/>
+    <col min="8" max="8" width="30.7592592592593" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" style="14"/>
+    <col min="10" max="16384" width="8.88888888888889" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <f>E2-D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>1.1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>42331</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F14" si="0">E3-D3</f>
         <v>-42331</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>1.2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43315</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>-43315</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>2.1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>2.2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>2.3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>2.4</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>43358</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>43363</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f>E13-D13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>43434</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>43436</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>3</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>43435</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>43436</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>43437</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>43454</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>43464</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>43359</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>43364</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f>E18-D18</f>
         <v>5</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>43434</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>43436</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>3</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>43369</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <f>E20-D20</f>
         <v>43369</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" ht="195" customHeight="1" spans="3:8">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>43465</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>43369</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>43370</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>43451</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>43480</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>43481</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>43482</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>43482</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="2:7">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>43484</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>43484</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>43485</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>43487</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>43486</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>43487</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="2:8">
+      <c r="B34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4440,684 +4479,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.5462962962963" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.4444444444444" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39.2685185185185" style="11" customWidth="1"/>
-    <col min="5" max="5" width="39" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34.3611111111111" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.6388888888889" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.1851851851852" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="10.5462962962963" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.4444444444444" style="10" customWidth="1"/>
+    <col min="4" max="4" width="39.2685185185185" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.3611111111111" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.6388888888889" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.1851851851852" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>208</v>
+      <c r="D1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="D2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="13">
         <v>43231.7916666667</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>213</v>
+      <c r="H2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="D3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="13">
         <v>43231.7916666667</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>213</v>
+      <c r="H3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:9">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>43232.4583333333</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>213</v>
+      <c r="H4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:9">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43232.4583333333</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43232.4583333333</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="13">
         <v>43233.9166666667</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>213</v>
+      <c r="H6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>213</v>
+      <c r="F7" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>213</v>
+      <c r="F8" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>213</v>
+      <c r="F9" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>213</v>
+      <c r="H10" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>213</v>
+      <c r="H11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>213</v>
+      <c r="H12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>213</v>
+      <c r="H13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>213</v>
+      <c r="H14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>213</v>
+      <c r="H15" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>213</v>
+      <c r="H16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="11">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="11">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="11">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="11">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
     </row>
@@ -5133,7 +5172,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5148,7 +5187,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5156,16 +5195,16 @@
     </row>
     <row r="2" ht="35.55" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:4">
@@ -5173,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C3" s="5">
         <v>0.1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" ht="18.15" spans="1:4">
@@ -5189,37 +5228,37 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="18.15" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" ht="18.15" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" ht="18.15" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" ht="18.15" spans="1:4">
@@ -5229,17 +5268,17 @@
         <v>0.3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" ht="18.15" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" ht="18.15" spans="1:4">
@@ -5249,7 +5288,7 @@
         <v>0.4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" ht="18.15" spans="1:4">
@@ -5257,13 +5296,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" ht="18.15" spans="1:4">
@@ -5271,13 +5310,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:4">
@@ -5285,13 +5324,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C13" s="5">
         <v>3.1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" ht="18.15" spans="1:4">
@@ -5301,7 +5340,7 @@
         <v>3.2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" ht="18.15" spans="1:4">
@@ -5311,7 +5350,7 @@
         <v>3.3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" ht="18.15" spans="1:4">
@@ -5319,13 +5358,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C16" s="5">
         <v>4.1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" ht="18.15" spans="1:4">
@@ -5335,17 +5374,17 @@
         <v>4.2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" ht="18.15" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="5">
         <v>4.3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" ht="18.15" spans="1:4">
@@ -5354,8 +5393,8 @@
       <c r="C19" s="5">
         <v>4.4</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>252</v>
+      <c r="D19" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="20" ht="18.15" spans="1:4">
@@ -5363,13 +5402,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C20" s="5">
         <v>5.1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" ht="18.15" spans="1:4">
@@ -5379,7 +5418,7 @@
         <v>5.2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" ht="15.9" customHeight="1" spans="1:4">
@@ -5387,7 +5426,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -5397,7 +5436,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" ht="18.15" spans="1:4">
@@ -5405,7 +5444,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" ht="15.9" customHeight="1" spans="1:4">
@@ -5413,7 +5452,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -5425,7 +5464,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" ht="18.15" spans="1:4">
@@ -5433,7 +5472,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" ht="18.15" spans="1:4">
@@ -5441,7 +5480,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" ht="18.15" spans="1:4">
@@ -5449,7 +5488,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" ht="15.9" customHeight="1" spans="1:4">
@@ -5457,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -5467,7 +5506,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" ht="15.9" customHeight="1" spans="1:4">
@@ -5475,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -5483,7 +5522,7 @@
     <row r="33" ht="18.15" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -5491,7 +5530,7 @@
     <row r="34" ht="15.9" customHeight="1" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -5499,7 +5538,7 @@
     <row r="35" ht="15.9" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -5507,7 +5546,7 @@
     <row r="36" ht="15.9" customHeight="1" spans="1:4">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5515,7 +5554,7 @@
     <row r="37" ht="15.9" customHeight="1" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5523,11 +5562,11 @@
     <row r="38" ht="15.9" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" ht="15.9" customHeight="1" spans="1:4">
@@ -5535,7 +5574,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" ht="15.9" customHeight="1" spans="1:4">
@@ -5543,7 +5582,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" ht="15.9" customHeight="1" spans="1:4">

--- a/doc/5-女娲系统设计方案.xlsx
+++ b/doc/5-女娲系统设计方案.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="284">
   <si>
     <t>女娲智脑系统设计表</t>
   </si>
@@ -744,6 +744,12 @@
     <t>有-组件、属性，etc</t>
   </si>
   <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 抽象与泛化</t>
+  </si>
+  <si>
     <t>测试编号</t>
   </si>
   <si>
@@ -974,11 +980,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
@@ -1041,7 +1047,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,87 +1166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1170,14 +1184,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1185,7 +1191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,7 +1266,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1338,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,55 +1428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,85 +1440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,20 +1564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,6 +1584,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,36 +1614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,6 +1635,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1655,153 +1652,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3945,10 +3951,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4460,6 +4466,16 @@
       </c>
       <c r="H35" s="14" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4492,31 +4508,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4524,22 +4540,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G2" s="13">
         <v>43231.7916666667</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4547,22 +4563,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G3" s="13">
         <v>43231.7916666667</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" ht="24" spans="1:9">
@@ -4570,22 +4586,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G4" s="13">
         <v>43232.4583333333</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:9">
@@ -4593,22 +4609,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G5" s="13">
         <v>43232.4583333333</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4618,22 +4634,22 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G6" s="13">
         <v>43233.9166666667</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4641,13 +4657,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4655,13 +4671,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4669,13 +4685,13 @@
         <v>8</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4683,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4694,10 +4710,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4705,10 +4721,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4716,10 +4732,10 @@
         <v>12</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4727,10 +4743,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4738,10 +4754,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4749,10 +4765,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5187,7 +5203,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5195,16 +5211,16 @@
     </row>
     <row r="2" ht="35.55" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:4">
@@ -5212,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C3" s="5">
         <v>0.1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="18.15" spans="1:4">
@@ -5228,37 +5244,37 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" ht="18.15" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" ht="18.15" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" ht="18.15" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" ht="18.15" spans="1:4">
@@ -5268,17 +5284,17 @@
         <v>0.3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" ht="18.15" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" ht="18.15" spans="1:4">
@@ -5288,7 +5304,7 @@
         <v>0.4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" ht="18.15" spans="1:4">
@@ -5296,13 +5312,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" ht="18.15" spans="1:4">
@@ -5310,13 +5326,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:4">
@@ -5324,13 +5340,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C13" s="5">
         <v>3.1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" ht="18.15" spans="1:4">
@@ -5340,7 +5356,7 @@
         <v>3.2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" ht="18.15" spans="1:4">
@@ -5350,7 +5366,7 @@
         <v>3.3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" ht="18.15" spans="1:4">
@@ -5358,13 +5374,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C16" s="5">
         <v>4.1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" ht="18.15" spans="1:4">
@@ -5374,7 +5390,7 @@
         <v>4.2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" ht="18.15" spans="1:4">
@@ -5384,7 +5400,7 @@
         <v>4.3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" ht="18.15" spans="1:4">
@@ -5394,7 +5410,7 @@
         <v>4.4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" ht="18.15" spans="1:4">
@@ -5402,13 +5418,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C20" s="5">
         <v>5.1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" ht="18.15" spans="1:4">
@@ -5418,7 +5434,7 @@
         <v>5.2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" ht="15.9" customHeight="1" spans="1:4">
@@ -5426,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -5436,7 +5452,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" ht="18.15" spans="1:4">
@@ -5444,7 +5460,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" ht="15.9" customHeight="1" spans="1:4">
@@ -5452,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -5464,7 +5480,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" ht="18.15" spans="1:4">
@@ -5472,7 +5488,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" ht="18.15" spans="1:4">
@@ -5480,7 +5496,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" ht="18.15" spans="1:4">
@@ -5488,7 +5504,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" ht="15.9" customHeight="1" spans="1:4">
@@ -5496,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -5506,7 +5522,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" ht="15.9" customHeight="1" spans="1:4">
@@ -5514,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -5522,7 +5538,7 @@
     <row r="33" ht="18.15" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -5530,7 +5546,7 @@
     <row r="34" ht="15.9" customHeight="1" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -5538,7 +5554,7 @@
     <row r="35" ht="15.9" customHeight="1" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -5546,7 +5562,7 @@
     <row r="36" ht="15.9" customHeight="1" spans="1:4">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5554,7 +5570,7 @@
     <row r="37" ht="15.9" customHeight="1" spans="1:4">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5562,11 +5578,11 @@
     <row r="38" ht="15.9" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" ht="15.9" customHeight="1" spans="1:4">
@@ -5574,7 +5590,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" ht="15.9" customHeight="1" spans="1:4">
@@ -5582,7 +5598,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" ht="15.9" customHeight="1" spans="1:4">
